--- a/biology/Médecine/Tsering_Wangchuk/Tsering_Wangchuk.xlsx
+++ b/biology/Médecine/Tsering_Wangchuk/Tsering_Wangchuk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsering Wangchuk né en 1974 est un médecin tibétain, et l'actuel ministre de la Santé de l'administration centrale tibétaine en exil
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsering Wangchuk est né en 1974. En 1993, après ses études au lycée, il obtient une bourse du ministère de l'Éducation pour poursuivre ses études à Varsovie en Pologne, où il obtint son doctorat de médecine suivie de deux années de stage à l'hôpital de l'université médicale de Varsovie. En 2003, il est retourné en Inde et a rejoint en tant que médecin attitré le Phuntsokling Menlha Hospital pendant cinq ans de 2003 à 2008. De 2008 à 2009, il a travaillé comme médecin responsable de la clinique et de l'hôpital du Tibetan Refugee Self Help Center à Darjeeling. Depuis 2009, il a travaillé comme médecin chef au Tsojhe Khangsar Charity Hospital à Bylakuppe, en Inde du sud[1].
-Depuis le 16 septembre 2011, sous la mandature de l'actuel premier ministre tibétain Lobsang Sangay, il est le ministre de la Santé de l'administration centrale tibétaine[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsering Wangchuk est né en 1974. En 1993, après ses études au lycée, il obtient une bourse du ministère de l'Éducation pour poursuivre ses études à Varsovie en Pologne, où il obtint son doctorat de médecine suivie de deux années de stage à l'hôpital de l'université médicale de Varsovie. En 2003, il est retourné en Inde et a rejoint en tant que médecin attitré le Phuntsokling Menlha Hospital pendant cinq ans de 2003 à 2008. De 2008 à 2009, il a travaillé comme médecin responsable de la clinique et de l'hôpital du Tibetan Refugee Self Help Center à Darjeeling. Depuis 2009, il a travaillé comme médecin chef au Tsojhe Khangsar Charity Hospital à Bylakuppe, en Inde du sud.
+Depuis le 16 septembre 2011, sous la mandature de l'actuel premier ministre tibétain Lobsang Sangay, il est le ministre de la Santé de l'administration centrale tibétaine,.
 </t>
         </is>
       </c>
